--- a/Controle dos Cenarios.xlsx
+++ b/Controle dos Cenarios.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melbr\eclipse-workspace\Workspace\eclipse\DesafioAutomacaoMantis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melbr\eclipse-workspace\DesafioAutomacaoMantis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cenarios" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="101">
   <si>
     <t>Feature</t>
   </si>
@@ -305,9 +305,6 @@
     <t>FireFox</t>
   </si>
   <si>
-    <t>Opera</t>
-  </si>
-  <si>
     <t>adicionar categoria tarefa</t>
   </si>
   <si>
@@ -315,6 +312,18 @@
   </si>
   <si>
     <t>Ok</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>IE - Amostragem</t>
+  </si>
+  <si>
+    <t>FireFox - Amostragem</t>
+  </si>
+  <si>
+    <t>Chrome - Amostragem</t>
   </si>
 </sst>
 </file>
@@ -476,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -605,9 +614,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -668,10 +674,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -968,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1037,7 +1043,7 @@
       <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="58" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="38" t="s">
@@ -1056,7 +1062,7 @@
       <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="38" t="s">
         <v>50</v>
       </c>
@@ -1073,7 +1079,7 @@
       <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="38" t="s">
         <v>56</v>
       </c>
@@ -1129,7 +1135,7 @@
       <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="58" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="38" t="s">
@@ -1148,7 +1154,7 @@
       <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="62"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="38" t="s">
         <v>23</v>
       </c>
@@ -1167,7 +1173,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="62"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="38" t="s">
         <v>43</v>
       </c>
@@ -1186,9 +1192,9 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="62"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>21</v>
@@ -1203,7 +1209,7 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="63"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="38" t="s">
         <v>89</v>
       </c>
@@ -1231,7 +1237,7 @@
       <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="58" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="38" t="s">
@@ -1252,7 +1258,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A17" s="60"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="38" t="s">
         <v>22</v>
       </c>
@@ -1271,7 +1277,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="61"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="33"/>
@@ -1289,7 +1295,7 @@
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="58" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="38" t="s">
@@ -1310,7 +1316,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A21" s="62"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="38" t="s">
         <v>90</v>
       </c>
@@ -1327,7 +1333,7 @@
       <c r="G21" s="27"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="62"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="38" t="s">
         <v>51</v>
       </c>
@@ -1346,7 +1352,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="62"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="38" t="s">
         <v>83</v>
       </c>
@@ -1365,7 +1371,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="60"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="38" t="s">
         <v>26</v>
       </c>
@@ -1393,7 +1399,7 @@
       <c r="G25" s="27"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="58" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="38" t="s">
@@ -1412,7 +1418,7 @@
       <c r="G26" s="29"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="64"/>
+      <c r="A27" s="63"/>
       <c r="B27" s="38" t="s">
         <v>12</v>
       </c>
@@ -1431,7 +1437,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="64"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="38" t="s">
         <v>13</v>
       </c>
@@ -1450,7 +1456,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="64"/>
+      <c r="A29" s="63"/>
       <c r="B29" s="38" t="s">
         <v>14</v>
       </c>
@@ -1469,7 +1475,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="64"/>
+      <c r="A30" s="63"/>
       <c r="B30" s="38" t="s">
         <v>27</v>
       </c>
@@ -1486,7 +1492,7 @@
       <c r="G30" s="29"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="58"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="33"/>
@@ -1495,7 +1501,7 @@
       <c r="G31" s="29"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="58" t="s">
         <v>86</v>
       </c>
       <c r="B32" s="38" t="s">
@@ -1516,7 +1522,7 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="64"/>
+      <c r="A33" s="63"/>
       <c r="B33" s="38" t="s">
         <v>16</v>
       </c>
@@ -1535,7 +1541,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="26.25">
-      <c r="A34" s="64"/>
+      <c r="A34" s="63"/>
       <c r="B34" s="38" t="s">
         <v>52</v>
       </c>
@@ -1554,7 +1560,7 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="64"/>
+      <c r="A35" s="63"/>
       <c r="B35" s="38" t="s">
         <v>32</v>
       </c>
@@ -1582,7 +1588,7 @@
       <c r="G36" s="29"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="59" t="s">
+      <c r="A37" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="38" t="s">
@@ -1603,7 +1609,7 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="62"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="38" t="s">
         <v>20</v>
       </c>
@@ -1622,7 +1628,7 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="62"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="16"/>
       <c r="C39" s="17"/>
       <c r="D39" s="34"/>
@@ -1640,7 +1646,7 @@
       <c r="G40" s="27"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="62" t="s">
+      <c r="A41" s="61" t="s">
         <v>33</v>
       </c>
       <c r="B41" s="41" t="s">
@@ -1659,7 +1665,7 @@
       <c r="G41" s="27"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="62"/>
+      <c r="A42" s="61"/>
       <c r="B42" s="41" t="s">
         <v>76</v>
       </c>
@@ -1678,7 +1684,7 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="62"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="38" t="s">
         <v>77</v>
       </c>
@@ -1695,7 +1701,7 @@
       <c r="G43" s="27"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="62"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="38" t="s">
         <v>34</v>
       </c>
@@ -1714,7 +1720,7 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="62"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="38" t="s">
         <v>78</v>
       </c>
@@ -1742,7 +1748,7 @@
       <c r="G46" s="27"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="59" t="s">
+      <c r="A47" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B47" s="38" t="s">
@@ -1763,7 +1769,7 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="62"/>
+      <c r="A48" s="61"/>
       <c r="B48" s="38" t="s">
         <v>37</v>
       </c>
@@ -1782,7 +1788,7 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="62"/>
+      <c r="A49" s="61"/>
       <c r="B49" s="38" t="s">
         <v>46</v>
       </c>
@@ -1799,7 +1805,7 @@
       <c r="G49" s="27"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="62"/>
+      <c r="A50" s="61"/>
       <c r="B50" s="38" t="s">
         <v>53</v>
       </c>
@@ -1816,7 +1822,7 @@
       <c r="G50" s="27"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A51" s="62"/>
+      <c r="A51" s="61"/>
       <c r="B51" s="38" t="s">
         <v>41</v>
       </c>
@@ -1835,7 +1841,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A52" s="62"/>
+      <c r="A52" s="61"/>
       <c r="B52" s="38" t="s">
         <v>91</v>
       </c>
@@ -1852,7 +1858,7 @@
       <c r="G52" s="27"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="63"/>
+      <c r="A53" s="62"/>
       <c r="B53" s="38" t="s">
         <v>79</v>
       </c>
@@ -1880,7 +1886,7 @@
       <c r="G54" s="27"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="59" t="s">
+      <c r="A55" s="58" t="s">
         <v>18</v>
       </c>
       <c r="B55" s="38" t="s">
@@ -1899,7 +1905,7 @@
       <c r="G55" s="27"/>
     </row>
     <row r="56" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A56" s="62"/>
+      <c r="A56" s="61"/>
       <c r="B56" s="38" t="s">
         <v>30</v>
       </c>
@@ -1918,7 +1924,7 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="62"/>
+      <c r="A57" s="61"/>
       <c r="B57" s="38" t="s">
         <v>31</v>
       </c>
@@ -1937,7 +1943,7 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="63"/>
+      <c r="A58" s="62"/>
       <c r="B58" s="38" t="s">
         <v>80</v>
       </c>
@@ -1965,7 +1971,7 @@
       <c r="G59" s="27"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="59" t="s">
+      <c r="A60" s="58" t="s">
         <v>48</v>
       </c>
       <c r="B60" s="38" t="s">
@@ -1984,7 +1990,7 @@
       <c r="G60" s="27"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="60"/>
+      <c r="A61" s="59"/>
       <c r="B61" s="38" t="s">
         <v>36</v>
       </c>
@@ -2003,7 +2009,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="34.5" customHeight="1">
-      <c r="A62" s="60"/>
+      <c r="A62" s="59"/>
       <c r="B62" s="38" t="s">
         <v>81</v>
       </c>
@@ -2011,7 +2017,7 @@
         <v>21</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E62" s="40" t="s">
         <v>87</v>
@@ -2022,7 +2028,7 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="61"/>
+      <c r="A63" s="60"/>
       <c r="B63" s="38" t="s">
         <v>55</v>
       </c>
@@ -2050,7 +2056,7 @@
       <c r="G64" s="27"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="59" t="s">
+      <c r="A65" s="58" t="s">
         <v>49</v>
       </c>
       <c r="B65" s="38" t="s">
@@ -2069,7 +2075,7 @@
       <c r="G65" s="27"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="61"/>
+      <c r="A66" s="60"/>
       <c r="B66" s="38" t="s">
         <v>40</v>
       </c>
@@ -2120,17 +2126,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="49.5703125" style="54" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="55" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="56" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="56" customWidth="1"/>
+    <col min="2" max="2" width="49.5703125" style="53" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="55" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="55" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2147,784 +2153,802 @@
         <v>93</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="47"/>
+      <c r="C2" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="12"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="47"/>
+      <c r="C4" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="62"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="47"/>
+      <c r="C5" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="46"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="66"/>
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="64"/>
+      <c r="B6" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="47"/>
+      <c r="C6" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="46"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="49"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="47"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="12"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="47"/>
+      <c r="C10" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="62"/>
-      <c r="B11" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="47"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="65"/>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="47"/>
+      <c r="C12" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="65"/>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="47"/>
+      <c r="C13" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="46"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="66"/>
-      <c r="B14" s="45" t="s">
+      <c r="A14" s="64"/>
+      <c r="B14" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="47"/>
+      <c r="C14" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="46"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="50"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="47"/>
+      <c r="C16" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="46"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="69"/>
-      <c r="B17" s="45" t="s">
+      <c r="A17" s="68"/>
+      <c r="B17" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="47"/>
+      <c r="C17" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="46"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="37"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="47"/>
+      <c r="C19" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="62"/>
-      <c r="B20" s="45" t="s">
+      <c r="A20" s="61"/>
+      <c r="B20" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="47"/>
+      <c r="C20" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="46"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="62"/>
-      <c r="B21" s="45" t="s">
+      <c r="A21" s="61"/>
+      <c r="B21" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="47"/>
+      <c r="C21" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="46"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="62"/>
-      <c r="B22" s="45" t="s">
+      <c r="A22" s="61"/>
+      <c r="B22" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="47"/>
+      <c r="C22" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="46"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="65"/>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="47"/>
+      <c r="C23" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="46"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="68" t="s">
+      <c r="A25" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="47"/>
+      <c r="C25" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="46"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="65"/>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="47"/>
+      <c r="C26" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="46"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="65"/>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="47"/>
+      <c r="C27" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="46"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="65"/>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="47"/>
+      <c r="C28" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="46"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="66"/>
-      <c r="B29" s="45" t="s">
+      <c r="A29" s="64"/>
+      <c r="B29" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="47"/>
+      <c r="C29" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="46"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="57"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="47"/>
+      <c r="C31" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="67"/>
-      <c r="B32" s="45" t="s">
+      <c r="A32" s="66"/>
+      <c r="B32" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="47"/>
+      <c r="C32" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="45" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="67"/>
-      <c r="B33" s="45" t="s">
+      <c r="A33" s="66"/>
+      <c r="B33" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" s="47"/>
+      <c r="C33" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="67"/>
-      <c r="B34" s="45" t="s">
+      <c r="A34" s="66"/>
+      <c r="B34" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" s="47"/>
+      <c r="C34" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="45" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="14"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" s="47"/>
+      <c r="C36" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="46"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="62"/>
-      <c r="B37" s="45" t="s">
+      <c r="A37" s="61"/>
+      <c r="B37" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" s="47"/>
+      <c r="C37" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="46"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="19"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" s="47"/>
+      <c r="C39" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="46"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="62"/>
-      <c r="B40" s="51" t="s">
+      <c r="A40" s="61"/>
+      <c r="B40" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="47"/>
+      <c r="C40" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="46"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="62"/>
-      <c r="B41" s="45" t="s">
+      <c r="A41" s="61"/>
+      <c r="B41" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="47"/>
+      <c r="C41" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="46"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="62"/>
-      <c r="B42" s="45" t="s">
+      <c r="A42" s="61"/>
+      <c r="B42" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="47"/>
+      <c r="C42" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="46"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="62"/>
-      <c r="B43" s="45" t="s">
+      <c r="A43" s="61"/>
+      <c r="B43" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" s="47"/>
+      <c r="C43" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="46"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="4"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" s="47"/>
+      <c r="C45" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="46"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="62"/>
-      <c r="B46" s="45" t="s">
+      <c r="A46" s="61"/>
+      <c r="B46" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" s="47"/>
+      <c r="C46" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="46"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="62"/>
-      <c r="B47" s="45" t="s">
+      <c r="A47" s="61"/>
+      <c r="B47" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E47" s="47"/>
+      <c r="C47" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="46"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="62"/>
-      <c r="B48" s="45" t="s">
+      <c r="A48" s="61"/>
+      <c r="B48" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E48" s="47"/>
+      <c r="C48" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="46"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="62"/>
-      <c r="B49" s="45" t="s">
+      <c r="A49" s="61"/>
+      <c r="B49" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E49" s="47"/>
+      <c r="C49" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="46"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="62"/>
-      <c r="B50" s="45" t="s">
+      <c r="A50" s="61"/>
+      <c r="B50" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E50" s="47"/>
+      <c r="C50" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" s="46"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="63"/>
-      <c r="B51" s="45" t="s">
+      <c r="A51" s="62"/>
+      <c r="B51" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E51" s="47"/>
+      <c r="C51" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="46"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="14"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="59" t="s">
+      <c r="A53" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E53" s="47"/>
+      <c r="C53" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="46"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="62"/>
-      <c r="B54" s="45" t="s">
+      <c r="A54" s="61"/>
+      <c r="B54" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D54" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E54" s="47"/>
+      <c r="C54" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" s="46"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="62"/>
-      <c r="B55" s="45" t="s">
+      <c r="A55" s="61"/>
+      <c r="B55" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D55" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E55" s="47"/>
+      <c r="C55" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55" s="46"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="63"/>
-      <c r="B56" s="45" t="s">
+      <c r="A56" s="62"/>
+      <c r="B56" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C56" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D56" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E56" s="47"/>
+      <c r="C56" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E56" s="46"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="14"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="59" t="s">
+      <c r="A58" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="45" t="s">
+      <c r="B58" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D58" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E58" s="47"/>
+      <c r="C58" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E58" s="45" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="65"/>
-      <c r="B59" s="45" t="s">
+      <c r="B59" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D59" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E59" s="47"/>
+      <c r="C59" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="45" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="65"/>
-      <c r="B60" s="45" t="s">
+      <c r="B60" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D60" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E60" s="47"/>
+      <c r="C60" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" s="45" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="66"/>
-      <c r="B61" s="45" t="s">
+      <c r="A61" s="64"/>
+      <c r="B61" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D61" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E61" s="47"/>
+      <c r="C61" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E61" s="45" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="53"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
+      <c r="A62" s="52"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="59" t="s">
+      <c r="A63" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="B63" s="45" t="s">
+      <c r="B63" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C63" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D63" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E63" s="47"/>
+      <c r="C63" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" s="46"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="66"/>
-      <c r="B64" s="45" t="s">
+      <c r="A64" s="64"/>
+      <c r="B64" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C64" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D64" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E64" s="47"/>
+      <c r="C64" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E64" s="46"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="4"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2950,20 +2974,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="49.5703125" style="54" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="55" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="56" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="56" customWidth="1"/>
+    <col min="2" max="2" width="49.5703125" style="53" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="55" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="30">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2971,590 +2995,620 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>94</v>
+        <v>99</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="C2" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="12"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="62"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="66"/>
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="64"/>
+      <c r="B6" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="49"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
+      <c r="C8" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="12"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="62"/>
-      <c r="B11" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="65"/>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="65"/>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="66"/>
-      <c r="B14" s="45" t="s">
+      <c r="A14" s="64"/>
+      <c r="B14" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="50"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="70"/>
-      <c r="B17" s="45" t="s">
+      <c r="A17" s="69"/>
+      <c r="B17" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="37"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="47"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="62"/>
-      <c r="B20" s="45" t="s">
+      <c r="A20" s="61"/>
+      <c r="B20" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="62"/>
-      <c r="B21" s="45" t="s">
+      <c r="A21" s="61"/>
+      <c r="B21" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="62"/>
-      <c r="B22" s="45" t="s">
+      <c r="A22" s="61"/>
+      <c r="B22" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="47"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="65"/>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="68" t="s">
+      <c r="A25" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="47"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="60"/>
-      <c r="B26" s="45" t="s">
+      <c r="A26" s="59"/>
+      <c r="B26" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="47"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="60"/>
-      <c r="B27" s="45" t="s">
+      <c r="A27" s="59"/>
+      <c r="B27" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="60"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="59"/>
+      <c r="B28" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="47"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="61"/>
-      <c r="B29" s="45" t="s">
+      <c r="A29" s="60"/>
+      <c r="B29" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="48"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="47"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="57"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="48"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="47"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="48"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="47"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="67"/>
-      <c r="B32" s="45" t="s">
+      <c r="A32" s="66"/>
+      <c r="B32" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="48"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="47"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="67"/>
-      <c r="B33" s="45" t="s">
+      <c r="A33" s="66"/>
+      <c r="B33" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="48"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="47"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="67"/>
-      <c r="B34" s="45" t="s">
+      <c r="A34" s="66"/>
+      <c r="B34" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="47"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="14"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="48"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="47"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="48"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="47"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="62"/>
-      <c r="B37" s="45" t="s">
+      <c r="A37" s="61"/>
+      <c r="B37" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="48"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="47"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="19"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="48"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="47"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="52"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="51"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="62"/>
-      <c r="B40" s="51" t="s">
+      <c r="A40" s="61"/>
+      <c r="B40" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="52"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="51"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="62"/>
-      <c r="B41" s="45" t="s">
+      <c r="A41" s="61"/>
+      <c r="B41" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="48"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="47"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="62"/>
-      <c r="B42" s="45" t="s">
+      <c r="A42" s="61"/>
+      <c r="B42" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="48"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="47"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="62"/>
-      <c r="B43" s="45" t="s">
+      <c r="A43" s="61"/>
+      <c r="B43" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="46"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="48"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="47"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="4"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="48"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="47"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="46"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="48"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="47"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="62"/>
-      <c r="B46" s="45" t="s">
+      <c r="A46" s="61"/>
+      <c r="B46" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="46"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="48"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="47"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="62"/>
-      <c r="B47" s="45" t="s">
+      <c r="A47" s="61"/>
+      <c r="B47" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="48"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="47"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="62"/>
-      <c r="B48" s="45" t="s">
+      <c r="A48" s="61"/>
+      <c r="B48" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="48"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="47"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="62"/>
-      <c r="B49" s="45" t="s">
+      <c r="A49" s="61"/>
+      <c r="B49" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="46"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="48"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="47"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="62"/>
-      <c r="B50" s="45" t="s">
+      <c r="A50" s="61"/>
+      <c r="B50" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="46"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="48"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="47"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="63"/>
-      <c r="B51" s="45" t="s">
+      <c r="A51" s="62"/>
+      <c r="B51" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="46"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="48"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="47"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="14"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="48"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="47"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="59" t="s">
+      <c r="A53" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="48"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="47"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="62"/>
-      <c r="B54" s="45" t="s">
+      <c r="A54" s="61"/>
+      <c r="B54" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="48"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="47"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="62"/>
-      <c r="B55" s="45" t="s">
+      <c r="A55" s="61"/>
+      <c r="B55" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="48"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="47"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="63"/>
-      <c r="B56" s="45" t="s">
+      <c r="A56" s="62"/>
+      <c r="B56" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="48"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="47"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="14"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="48"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="47"/>
     </row>
     <row r="58" spans="1:5" ht="21" customHeight="1">
-      <c r="A58" s="59" t="s">
+      <c r="A58" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="45" t="s">
+      <c r="B58" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="48"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="47"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="65"/>
-      <c r="B59" s="45" t="s">
+      <c r="B59" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="48"/>
+      <c r="C59" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" s="45" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="65"/>
-      <c r="B60" s="45" t="s">
+      <c r="B60" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="46"/>
-      <c r="D60" s="46"/>
-      <c r="E60" s="48"/>
+      <c r="C60" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="45" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="66"/>
-      <c r="B61" s="45" t="s">
+      <c r="A61" s="64"/>
+      <c r="B61" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="46"/>
-      <c r="D61" s="46"/>
-      <c r="E61" s="48"/>
+      <c r="C61" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E61" s="45" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="53"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="48"/>
+      <c r="A62" s="52"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="47"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="59" t="s">
+      <c r="A63" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="B63" s="45" t="s">
+      <c r="B63" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C63" s="46"/>
-      <c r="D63" s="46"/>
-      <c r="E63" s="48"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="47"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="66"/>
-      <c r="B64" s="45" t="s">
+      <c r="A64" s="64"/>
+      <c r="B64" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C64" s="46"/>
-      <c r="D64" s="46"/>
-      <c r="E64" s="48"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="47"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="4"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="48"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/Controle dos Cenarios.xlsx
+++ b/Controle dos Cenarios.xlsx
@@ -9,19 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Cenarios" sheetId="2" r:id="rId1"/>
-    <sheet name="Execução Navegadores" sheetId="3" r:id="rId2"/>
-    <sheet name="Execução Grid" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="94">
   <si>
     <t>Feature</t>
   </si>
@@ -299,31 +297,10 @@
     <t>imprimir tarefas</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>FireFox</t>
-  </si>
-  <si>
     <t>adicionar categoria tarefa</t>
   </si>
   <si>
     <t>leitura,escrita visualizador</t>
-  </si>
-  <si>
-    <t>Ok</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>IE - Amostragem</t>
-  </si>
-  <si>
-    <t>FireFox - Amostragem</t>
-  </si>
-  <si>
-    <t>Chrome - Amostragem</t>
   </si>
 </sst>
 </file>
@@ -397,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -470,22 +447,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -614,45 +580,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -672,24 +599,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -974,7 +883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
@@ -1043,7 +952,7 @@
       <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="45" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="38" t="s">
@@ -1062,7 +971,7 @@
       <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="38" t="s">
         <v>50</v>
       </c>
@@ -1079,7 +988,7 @@
       <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="60"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="38" t="s">
         <v>56</v>
       </c>
@@ -1135,7 +1044,7 @@
       <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="45" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="38" t="s">
@@ -1154,7 +1063,7 @@
       <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="61"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="38" t="s">
         <v>23</v>
       </c>
@@ -1173,7 +1082,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="61"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="38" t="s">
         <v>43</v>
       </c>
@@ -1192,9 +1101,9 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="61"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>21</v>
@@ -1209,7 +1118,7 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="62"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="38" t="s">
         <v>89</v>
       </c>
@@ -1237,7 +1146,7 @@
       <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="45" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="38" t="s">
@@ -1258,7 +1167,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A17" s="59"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="38" t="s">
         <v>22</v>
       </c>
@@ -1277,7 +1186,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="60"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="33"/>
@@ -1295,7 +1204,7 @@
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="45" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="38" t="s">
@@ -1316,7 +1225,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A21" s="61"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="38" t="s">
         <v>90</v>
       </c>
@@ -1333,7 +1242,7 @@
       <c r="G21" s="27"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="61"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="38" t="s">
         <v>51</v>
       </c>
@@ -1352,7 +1261,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="61"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="38" t="s">
         <v>83</v>
       </c>
@@ -1371,7 +1280,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="59"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="38" t="s">
         <v>26</v>
       </c>
@@ -1399,7 +1308,7 @@
       <c r="G25" s="27"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="45" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="38" t="s">
@@ -1418,7 +1327,7 @@
       <c r="G26" s="29"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="63"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="38" t="s">
         <v>12</v>
       </c>
@@ -1437,7 +1346,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="63"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="38" t="s">
         <v>13</v>
       </c>
@@ -1456,7 +1365,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="63"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="38" t="s">
         <v>14</v>
       </c>
@@ -1475,7 +1384,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="63"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="38" t="s">
         <v>27</v>
       </c>
@@ -1492,7 +1401,7 @@
       <c r="G30" s="29"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="57"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="33"/>
@@ -1501,7 +1410,7 @@
       <c r="G31" s="29"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="45" t="s">
         <v>86</v>
       </c>
       <c r="B32" s="38" t="s">
@@ -1522,7 +1431,7 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="63"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="38" t="s">
         <v>16</v>
       </c>
@@ -1541,7 +1450,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="26.25">
-      <c r="A34" s="63"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="38" t="s">
         <v>52</v>
       </c>
@@ -1560,7 +1469,7 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="63"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="38" t="s">
         <v>32</v>
       </c>
@@ -1588,7 +1497,7 @@
       <c r="G36" s="29"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="58" t="s">
+      <c r="A37" s="45" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="38" t="s">
@@ -1609,7 +1518,7 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="61"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="38" t="s">
         <v>20</v>
       </c>
@@ -1628,7 +1537,7 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="61"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="16"/>
       <c r="C39" s="17"/>
       <c r="D39" s="34"/>
@@ -1646,7 +1555,7 @@
       <c r="G40" s="27"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="61" t="s">
+      <c r="A41" s="48" t="s">
         <v>33</v>
       </c>
       <c r="B41" s="41" t="s">
@@ -1665,7 +1574,7 @@
       <c r="G41" s="27"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="61"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="41" t="s">
         <v>76</v>
       </c>
@@ -1684,7 +1593,7 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="61"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="38" t="s">
         <v>77</v>
       </c>
@@ -1701,7 +1610,7 @@
       <c r="G43" s="27"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="61"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="38" t="s">
         <v>34</v>
       </c>
@@ -1720,7 +1629,7 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="61"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="38" t="s">
         <v>78</v>
       </c>
@@ -1748,7 +1657,7 @@
       <c r="G46" s="27"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="58" t="s">
+      <c r="A47" s="45" t="s">
         <v>6</v>
       </c>
       <c r="B47" s="38" t="s">
@@ -1769,7 +1678,7 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="61"/>
+      <c r="A48" s="48"/>
       <c r="B48" s="38" t="s">
         <v>37</v>
       </c>
@@ -1788,7 +1697,7 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="61"/>
+      <c r="A49" s="48"/>
       <c r="B49" s="38" t="s">
         <v>46</v>
       </c>
@@ -1805,7 +1714,7 @@
       <c r="G49" s="27"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="61"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="38" t="s">
         <v>53</v>
       </c>
@@ -1822,7 +1731,7 @@
       <c r="G50" s="27"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A51" s="61"/>
+      <c r="A51" s="48"/>
       <c r="B51" s="38" t="s">
         <v>41</v>
       </c>
@@ -1841,7 +1750,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A52" s="61"/>
+      <c r="A52" s="48"/>
       <c r="B52" s="38" t="s">
         <v>91</v>
       </c>
@@ -1858,7 +1767,7 @@
       <c r="G52" s="27"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="62"/>
+      <c r="A53" s="49"/>
       <c r="B53" s="38" t="s">
         <v>79</v>
       </c>
@@ -1886,7 +1795,7 @@
       <c r="G54" s="27"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="58" t="s">
+      <c r="A55" s="45" t="s">
         <v>18</v>
       </c>
       <c r="B55" s="38" t="s">
@@ -1905,7 +1814,7 @@
       <c r="G55" s="27"/>
     </row>
     <row r="56" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A56" s="61"/>
+      <c r="A56" s="48"/>
       <c r="B56" s="38" t="s">
         <v>30</v>
       </c>
@@ -1924,7 +1833,7 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="61"/>
+      <c r="A57" s="48"/>
       <c r="B57" s="38" t="s">
         <v>31</v>
       </c>
@@ -1943,7 +1852,7 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="62"/>
+      <c r="A58" s="49"/>
       <c r="B58" s="38" t="s">
         <v>80</v>
       </c>
@@ -1971,7 +1880,7 @@
       <c r="G59" s="27"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="58" t="s">
+      <c r="A60" s="45" t="s">
         <v>48</v>
       </c>
       <c r="B60" s="38" t="s">
@@ -1990,7 +1899,7 @@
       <c r="G60" s="27"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="59"/>
+      <c r="A61" s="46"/>
       <c r="B61" s="38" t="s">
         <v>36</v>
       </c>
@@ -2009,7 +1918,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="34.5" customHeight="1">
-      <c r="A62" s="59"/>
+      <c r="A62" s="46"/>
       <c r="B62" s="38" t="s">
         <v>81</v>
       </c>
@@ -2017,7 +1926,7 @@
         <v>21</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E62" s="40" t="s">
         <v>87</v>
@@ -2028,7 +1937,7 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="60"/>
+      <c r="A63" s="47"/>
       <c r="B63" s="38" t="s">
         <v>55</v>
       </c>
@@ -2056,7 +1965,7 @@
       <c r="G64" s="27"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="58" t="s">
+      <c r="A65" s="45" t="s">
         <v>49</v>
       </c>
       <c r="B65" s="38" t="s">
@@ -2075,7 +1984,7 @@
       <c r="G65" s="27"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="60"/>
+      <c r="A66" s="47"/>
       <c r="B66" s="38" t="s">
         <v>40</v>
       </c>
@@ -2120,1511 +2029,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E65"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="29.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="49.5703125" style="53" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="54" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="55" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="55" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="46"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="12"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="46"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="61"/>
-      <c r="B5" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="46"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="64"/>
-      <c r="B6" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="46"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="48"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="12"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="46"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="61"/>
-      <c r="B11" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="46"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="65"/>
-      <c r="B12" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="46"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="65"/>
-      <c r="B13" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="46"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="64"/>
-      <c r="B14" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="46"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="49"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="46"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="68"/>
-      <c r="B17" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="46"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="37"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="46"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="61"/>
-      <c r="B20" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="46"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="61"/>
-      <c r="B21" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="46"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="61"/>
-      <c r="B22" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="46"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="65"/>
-      <c r="B23" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="46"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="4"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="46"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="65"/>
-      <c r="B26" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="46"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="65"/>
-      <c r="B27" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="46"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="65"/>
-      <c r="B28" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="46"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="64"/>
-      <c r="B29" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="46"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="56"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="66"/>
-      <c r="B32" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="66"/>
-      <c r="B33" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="66"/>
-      <c r="B34" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="14"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="46"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="61"/>
-      <c r="B37" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="46"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="19"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" s="46"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="61"/>
-      <c r="B40" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="46"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="61"/>
-      <c r="B41" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="46"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="61"/>
-      <c r="B42" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" s="46"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="61"/>
-      <c r="B43" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" s="46"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="4"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E45" s="46"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="61"/>
-      <c r="B46" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E46" s="46"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="61"/>
-      <c r="B47" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" s="46"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="61"/>
-      <c r="B48" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E48" s="46"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="61"/>
-      <c r="B49" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E49" s="46"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="61"/>
-      <c r="B50" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E50" s="46"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="62"/>
-      <c r="B51" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E51" s="46"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="14"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E53" s="46"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="61"/>
-      <c r="B54" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E54" s="46"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="61"/>
-      <c r="B55" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E55" s="46"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="62"/>
-      <c r="B56" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D56" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E56" s="46"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="14"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C58" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D58" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E58" s="45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="65"/>
-      <c r="B59" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C59" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E59" s="45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="65"/>
-      <c r="B60" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D60" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E60" s="45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="64"/>
-      <c r="B61" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D61" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E61" s="45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="52"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="46"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="B63" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C63" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D63" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E63" s="46"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="64"/>
-      <c r="B64" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C64" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D64" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E64" s="46"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="4"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A58:A61"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E65"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="29.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="49.5703125" style="53" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="54" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="55" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="55" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="30">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="12"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="61"/>
-      <c r="B5" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="64"/>
-      <c r="B6" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="48"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="12"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="61"/>
-      <c r="B11" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="65"/>
-      <c r="B12" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="65"/>
-      <c r="B13" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="64"/>
-      <c r="B14" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="49"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="69"/>
-      <c r="B17" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="47"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="37"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="61"/>
-      <c r="B20" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="61"/>
-      <c r="B21" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="61"/>
-      <c r="B22" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="65"/>
-      <c r="B23" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="4"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="59"/>
-      <c r="B26" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="59"/>
-      <c r="B27" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="59"/>
-      <c r="B28" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="60"/>
-      <c r="B29" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="47"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="56"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="47"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="47"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="66"/>
-      <c r="B32" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="47"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="66"/>
-      <c r="B33" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="47"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="66"/>
-      <c r="B34" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="47"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="14"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="47"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="47"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="61"/>
-      <c r="B37" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="47"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="19"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="47"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="51"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="61"/>
-      <c r="B40" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="51"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="61"/>
-      <c r="B41" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="47"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="61"/>
-      <c r="B42" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="47"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="61"/>
-      <c r="B43" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="47"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="4"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="47"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="47"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="61"/>
-      <c r="B46" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="45"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="47"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="61"/>
-      <c r="B47" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="47"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="61"/>
-      <c r="B48" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="47"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="61"/>
-      <c r="B49" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="45"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="47"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="61"/>
-      <c r="B50" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="45"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="47"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="62"/>
-      <c r="B51" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="45"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="47"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="14"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="47"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="47"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="61"/>
-      <c r="B54" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="47"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="61"/>
-      <c r="B55" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="47"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="62"/>
-      <c r="B56" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="47"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="14"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="47"/>
-    </row>
-    <row r="58" spans="1:5" ht="21" customHeight="1">
-      <c r="A58" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="47"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="65"/>
-      <c r="B59" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C59" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D59" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="E59" s="45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="65"/>
-      <c r="B60" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D60" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="E60" s="45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="64"/>
-      <c r="B61" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D61" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="E61" s="45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="52"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="47"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="B63" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="47"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="64"/>
-      <c r="B64" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="47"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="4"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="47"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A58:A61"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>